--- a/data-migration/xlsx_1900-/1911_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1911_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53B7C61E-EDF1-444A-BA14-80BB999855CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F36B9E-B1A0-4EB5-8A92-DDC5F4F96338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="1263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2979" uniqueCount="1264">
   <si>
     <t>Sommer</t>
   </si>
@@ -3809,6 +3809,9 @@
   </si>
   <si>
     <t>sidlerhuguenin_e</t>
+  </si>
+  <si>
+    <t>Prof</t>
   </si>
 </sst>
 </file>
@@ -4153,20 +4156,20 @@
   <dimension ref="A1:N416"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H157" sqref="H157"/>
+      <selection activeCell="I175" sqref="I175:I182"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="32.33203125" customWidth="1"/>
-    <col min="6" max="6" width="82.44140625" customWidth="1"/>
-    <col min="7" max="7" width="19.88671875" customWidth="1"/>
-    <col min="8" max="8" width="26.88671875" customWidth="1"/>
-    <col min="11" max="11" width="12.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="82.42578125" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" customWidth="1"/>
+    <col min="8" max="8" width="26.85546875" customWidth="1"/>
+    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1911</v>
       </c>
@@ -4192,7 +4195,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1911</v>
       </c>
@@ -4218,7 +4221,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1911</v>
       </c>
@@ -4244,7 +4247,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1911</v>
       </c>
@@ -4270,7 +4273,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1911</v>
       </c>
@@ -4296,7 +4299,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1911</v>
       </c>
@@ -4322,7 +4325,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1911</v>
       </c>
@@ -4351,7 +4354,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1911</v>
       </c>
@@ -4377,7 +4380,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1911</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1911</v>
       </c>
@@ -4435,7 +4438,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1911</v>
       </c>
@@ -4464,7 +4467,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -4493,7 +4496,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1911</v>
       </c>
@@ -4522,7 +4525,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1911</v>
       </c>
@@ -4548,7 +4551,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1911</v>
       </c>
@@ -4574,7 +4577,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1911</v>
       </c>
@@ -4600,7 +4603,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1911</v>
       </c>
@@ -4626,7 +4629,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1911</v>
       </c>
@@ -4652,7 +4655,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1911</v>
       </c>
@@ -4678,7 +4681,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1911</v>
       </c>
@@ -4707,7 +4710,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1911</v>
       </c>
@@ -4733,7 +4736,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1911</v>
       </c>
@@ -4759,7 +4762,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1911</v>
       </c>
@@ -4788,7 +4791,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1911</v>
       </c>
@@ -4817,7 +4820,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1911</v>
       </c>
@@ -4843,7 +4846,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1911</v>
       </c>
@@ -4869,7 +4872,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1911</v>
       </c>
@@ -4898,7 +4901,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1911</v>
       </c>
@@ -4924,7 +4927,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1911</v>
       </c>
@@ -4950,7 +4953,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1911</v>
       </c>
@@ -4976,7 +4979,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1911</v>
       </c>
@@ -5002,7 +5005,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1911</v>
       </c>
@@ -5028,7 +5031,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1911</v>
       </c>
@@ -5054,7 +5057,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1911</v>
       </c>
@@ -5080,7 +5083,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1911</v>
       </c>
@@ -5106,7 +5109,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1911</v>
       </c>
@@ -5132,7 +5135,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1911</v>
       </c>
@@ -5158,7 +5161,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1911</v>
       </c>
@@ -5187,7 +5190,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1911</v>
       </c>
@@ -5216,7 +5219,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1911</v>
       </c>
@@ -5242,7 +5245,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1911</v>
       </c>
@@ -5271,7 +5274,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1911</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1911</v>
       </c>
@@ -5323,7 +5326,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1911</v>
       </c>
@@ -5349,7 +5352,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1911</v>
       </c>
@@ -5375,7 +5378,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1911</v>
       </c>
@@ -5401,7 +5404,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1911</v>
       </c>
@@ -5427,7 +5430,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1911</v>
       </c>
@@ -5453,7 +5456,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1911</v>
       </c>
@@ -5479,7 +5482,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1911</v>
       </c>
@@ -5505,7 +5508,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1911</v>
       </c>
@@ -5531,7 +5534,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1911</v>
       </c>
@@ -5557,7 +5560,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1911</v>
       </c>
@@ -5583,7 +5586,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1911</v>
       </c>
@@ -5609,7 +5612,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1911</v>
       </c>
@@ -5635,7 +5638,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1911</v>
       </c>
@@ -5661,7 +5664,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1911</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1911</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1911</v>
       </c>
@@ -5739,7 +5742,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1911</v>
       </c>
@@ -5765,7 +5768,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1911</v>
       </c>
@@ -5791,7 +5794,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1911</v>
       </c>
@@ -5817,7 +5820,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1911</v>
       </c>
@@ -5843,7 +5846,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1911</v>
       </c>
@@ -5872,7 +5875,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1911</v>
       </c>
@@ -5898,7 +5901,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1911</v>
       </c>
@@ -5924,7 +5927,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1911</v>
       </c>
@@ -5950,7 +5953,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1911</v>
       </c>
@@ -5976,7 +5979,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1911</v>
       </c>
@@ -6002,7 +6005,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1911</v>
       </c>
@@ -6028,7 +6031,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1911</v>
       </c>
@@ -6054,7 +6057,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1911</v>
       </c>
@@ -6080,7 +6083,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1911</v>
       </c>
@@ -6106,7 +6109,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1911</v>
       </c>
@@ -6132,7 +6135,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1911</v>
       </c>
@@ -6161,7 +6164,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1911</v>
       </c>
@@ -6190,7 +6193,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1911</v>
       </c>
@@ -6228,7 +6231,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1911</v>
       </c>
@@ -6266,7 +6269,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1911</v>
       </c>
@@ -6292,7 +6295,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1911</v>
       </c>
@@ -6321,7 +6324,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1911</v>
       </c>
@@ -6350,7 +6353,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1911</v>
       </c>
@@ -6382,7 +6385,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1911</v>
       </c>
@@ -6408,7 +6411,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1911</v>
       </c>
@@ -6434,7 +6437,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1911</v>
       </c>
@@ -6460,7 +6463,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1911</v>
       </c>
@@ -6486,7 +6489,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1911</v>
       </c>
@@ -6512,7 +6515,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1911</v>
       </c>
@@ -6538,7 +6541,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1911</v>
       </c>
@@ -6564,7 +6567,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1911</v>
       </c>
@@ -6590,7 +6593,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1911</v>
       </c>
@@ -6616,7 +6619,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1911</v>
       </c>
@@ -6642,7 +6645,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1911</v>
       </c>
@@ -6668,7 +6671,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1911</v>
       </c>
@@ -6694,7 +6697,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1911</v>
       </c>
@@ -6720,7 +6723,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1911</v>
       </c>
@@ -6746,7 +6749,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1911</v>
       </c>
@@ -6772,7 +6775,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -6798,7 +6801,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1911</v>
       </c>
@@ -6824,7 +6827,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1911</v>
       </c>
@@ -6850,7 +6853,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1911</v>
       </c>
@@ -6876,7 +6879,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1911</v>
       </c>
@@ -6902,7 +6905,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1911</v>
       </c>
@@ -6928,7 +6931,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1911</v>
       </c>
@@ -6954,7 +6957,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1911</v>
       </c>
@@ -6980,7 +6983,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1911</v>
       </c>
@@ -7006,7 +7009,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1911</v>
       </c>
@@ -7032,7 +7035,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1911</v>
       </c>
@@ -7061,7 +7064,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1911</v>
       </c>
@@ -7090,7 +7093,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1911</v>
       </c>
@@ -7116,7 +7119,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1911</v>
       </c>
@@ -7142,7 +7145,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1911</v>
       </c>
@@ -7168,7 +7171,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1911</v>
       </c>
@@ -7194,7 +7197,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1911</v>
       </c>
@@ -7220,7 +7223,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1911</v>
       </c>
@@ -7246,7 +7249,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1911</v>
       </c>
@@ -7272,7 +7275,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1911</v>
       </c>
@@ -7298,7 +7301,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1911</v>
       </c>
@@ -7324,7 +7327,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1911</v>
       </c>
@@ -7350,7 +7353,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1911</v>
       </c>
@@ -7376,7 +7379,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1911</v>
       </c>
@@ -7402,7 +7405,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1911</v>
       </c>
@@ -7428,7 +7431,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1911</v>
       </c>
@@ -7454,7 +7457,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1911</v>
       </c>
@@ -7480,7 +7483,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1911</v>
       </c>
@@ -7506,7 +7509,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1911</v>
       </c>
@@ -7532,7 +7535,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1911</v>
       </c>
@@ -7558,7 +7561,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1911</v>
       </c>
@@ -7584,7 +7587,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1911</v>
       </c>
@@ -7610,7 +7613,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1911</v>
       </c>
@@ -7636,7 +7639,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1911</v>
       </c>
@@ -7662,7 +7665,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1911</v>
       </c>
@@ -7688,7 +7691,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1911</v>
       </c>
@@ -7714,7 +7717,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>1911</v>
       </c>
@@ -7740,7 +7743,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>1911</v>
       </c>
@@ -7772,7 +7775,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>1911</v>
       </c>
@@ -7804,7 +7807,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>1911</v>
       </c>
@@ -7830,7 +7833,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>1911</v>
       </c>
@@ -7856,7 +7859,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>1911</v>
       </c>
@@ -7882,7 +7885,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>1911</v>
       </c>
@@ -7908,7 +7911,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1911</v>
       </c>
@@ -7934,7 +7937,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>1911</v>
       </c>
@@ -7960,7 +7963,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>1911</v>
       </c>
@@ -7992,7 +7995,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>1911</v>
       </c>
@@ -8018,7 +8021,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1911</v>
       </c>
@@ -8044,7 +8047,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>1911</v>
       </c>
@@ -8070,7 +8073,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1911</v>
       </c>
@@ -8096,7 +8099,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>1911</v>
       </c>
@@ -8122,7 +8125,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>1911</v>
       </c>
@@ -8148,7 +8151,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>1911</v>
       </c>
@@ -8174,7 +8177,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1911</v>
       </c>
@@ -8200,7 +8203,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>1911</v>
       </c>
@@ -8226,7 +8229,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>1911</v>
       </c>
@@ -8252,7 +8255,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>1911</v>
       </c>
@@ -8278,7 +8281,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>1911</v>
       </c>
@@ -8304,7 +8307,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>1911</v>
       </c>
@@ -8330,7 +8333,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>1911</v>
       </c>
@@ -8356,7 +8359,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>1911</v>
       </c>
@@ -8382,7 +8385,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>1911</v>
       </c>
@@ -8408,7 +8411,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>1911</v>
       </c>
@@ -8434,7 +8437,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>1911</v>
       </c>
@@ -8460,7 +8463,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>1911</v>
       </c>
@@ -8486,7 +8489,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>1911</v>
       </c>
@@ -8512,7 +8515,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1911</v>
       </c>
@@ -8538,7 +8541,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1911</v>
       </c>
@@ -8564,7 +8567,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1911</v>
       </c>
@@ -8590,7 +8593,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1911</v>
       </c>
@@ -8616,7 +8619,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1911</v>
       </c>
@@ -8642,7 +8645,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1911</v>
       </c>
@@ -8668,7 +8671,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1911</v>
       </c>
@@ -8694,7 +8697,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1911</v>
       </c>
@@ -8720,7 +8723,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1911</v>
       </c>
@@ -8746,7 +8749,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1911</v>
       </c>
@@ -8772,7 +8775,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1911</v>
       </c>
@@ -8798,7 +8801,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1911</v>
       </c>
@@ -8821,10 +8824,10 @@
         <v>1142</v>
       </c>
       <c r="I175" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1911</v>
       </c>
@@ -8847,10 +8850,10 @@
         <v>1142</v>
       </c>
       <c r="I176" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1911</v>
       </c>
@@ -8873,10 +8876,10 @@
         <v>1143</v>
       </c>
       <c r="I177" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1911</v>
       </c>
@@ -8899,10 +8902,10 @@
         <v>1143</v>
       </c>
       <c r="I178" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1911</v>
       </c>
@@ -8925,10 +8928,10 @@
         <v>1143</v>
       </c>
       <c r="I179" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1911</v>
       </c>
@@ -8951,10 +8954,10 @@
         <v>1143</v>
       </c>
       <c r="I180" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1911</v>
       </c>
@@ -8977,10 +8980,10 @@
         <v>1241</v>
       </c>
       <c r="I181" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1911</v>
       </c>
@@ -9003,10 +9006,10 @@
         <v>1241</v>
       </c>
       <c r="I182" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1911</v>
       </c>
@@ -9032,7 +9035,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1911</v>
       </c>
@@ -9058,7 +9061,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1911</v>
       </c>
@@ -9084,7 +9087,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1911</v>
       </c>
@@ -9110,7 +9113,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1911</v>
       </c>
@@ -9136,7 +9139,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1911</v>
       </c>
@@ -9162,7 +9165,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1911</v>
       </c>
@@ -9188,7 +9191,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1911</v>
       </c>
@@ -9214,7 +9217,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1911</v>
       </c>
@@ -9240,7 +9243,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1911</v>
       </c>
@@ -9266,7 +9269,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1911</v>
       </c>
@@ -9292,7 +9295,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1911</v>
       </c>
@@ -9321,7 +9324,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1911</v>
       </c>
@@ -9350,7 +9353,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1911</v>
       </c>
@@ -9379,7 +9382,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1911</v>
       </c>
@@ -9408,7 +9411,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1911</v>
       </c>
@@ -9437,7 +9440,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1911</v>
       </c>
@@ -9463,7 +9466,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1911</v>
       </c>
@@ -9489,7 +9492,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1911</v>
       </c>
@@ -9515,7 +9518,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1911</v>
       </c>
@@ -9541,7 +9544,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1911</v>
       </c>
@@ -9567,7 +9570,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1911</v>
       </c>
@@ -9593,7 +9596,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1911</v>
       </c>
@@ -9619,7 +9622,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1911</v>
       </c>
@@ -9645,7 +9648,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1911</v>
       </c>
@@ -9671,7 +9674,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1911</v>
       </c>
@@ -9697,7 +9700,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1911</v>
       </c>
@@ -9723,7 +9726,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1911</v>
       </c>
@@ -9749,7 +9752,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>1911</v>
       </c>
@@ -9775,7 +9778,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1911</v>
       </c>
@@ -9801,7 +9804,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>1911</v>
       </c>
@@ -9827,7 +9830,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>1911</v>
       </c>
@@ -9853,7 +9856,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>1911</v>
       </c>
@@ -9879,7 +9882,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>1911</v>
       </c>
@@ -9905,7 +9908,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>1911</v>
       </c>
@@ -9931,7 +9934,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>1911</v>
       </c>
@@ -9957,7 +9960,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>1911</v>
       </c>
@@ -9983,7 +9986,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>1911</v>
       </c>
@@ -10009,7 +10012,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>1911</v>
       </c>
@@ -10035,7 +10038,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>1911</v>
       </c>
@@ -10061,7 +10064,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>1911</v>
       </c>
@@ -10087,7 +10090,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>1911</v>
       </c>
@@ -10113,7 +10116,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>1911</v>
       </c>
@@ -10139,7 +10142,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>1911</v>
       </c>
@@ -10165,7 +10168,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>1911</v>
       </c>
@@ -10191,7 +10194,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>1911</v>
       </c>
@@ -10217,7 +10220,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>1911</v>
       </c>
@@ -10243,7 +10246,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>1911</v>
       </c>
@@ -10269,7 +10272,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>1911</v>
       </c>
@@ -10295,7 +10298,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>1911</v>
       </c>
@@ -10321,7 +10324,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>1911</v>
       </c>
@@ -10347,7 +10350,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>1911</v>
       </c>
@@ -10373,7 +10376,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>1911</v>
       </c>
@@ -10399,7 +10402,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>1911</v>
       </c>
@@ -10425,7 +10428,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>1911</v>
       </c>
@@ -10451,7 +10454,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>1911</v>
       </c>
@@ -10477,7 +10480,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>1911</v>
       </c>
@@ -10503,7 +10506,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>1911</v>
       </c>
@@ -10529,7 +10532,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>1911</v>
       </c>
@@ -10555,7 +10558,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>1911</v>
       </c>
@@ -10581,7 +10584,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>1911</v>
       </c>
@@ -10607,7 +10610,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>1911</v>
       </c>
@@ -10633,7 +10636,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>1911</v>
       </c>
@@ -10659,7 +10662,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>1911</v>
       </c>
@@ -10685,7 +10688,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>1911</v>
       </c>
@@ -10711,7 +10714,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>1911</v>
       </c>
@@ -10737,7 +10740,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>1911</v>
       </c>
@@ -10763,7 +10766,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>1911</v>
       </c>
@@ -10789,7 +10792,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>1911</v>
       </c>
@@ -10815,7 +10818,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>1911</v>
       </c>
@@ -10841,7 +10844,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>1911</v>
       </c>
@@ -10867,7 +10870,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>1911</v>
       </c>
@@ -10893,7 +10896,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>1911</v>
       </c>
@@ -10919,7 +10922,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>1911</v>
       </c>
@@ -10945,7 +10948,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>1911</v>
       </c>
@@ -10971,7 +10974,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>1911</v>
       </c>
@@ -10997,7 +11000,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>1911</v>
       </c>
@@ -11023,7 +11026,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>1911</v>
       </c>
@@ -11049,7 +11052,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>1911</v>
       </c>
@@ -11075,7 +11078,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>1911</v>
       </c>
@@ -11101,7 +11104,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>1911</v>
       </c>
@@ -11127,7 +11130,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>1911</v>
       </c>
@@ -11153,7 +11156,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>1911</v>
       </c>
@@ -11179,7 +11182,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>1911</v>
       </c>
@@ -11205,7 +11208,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>1911</v>
       </c>
@@ -11231,7 +11234,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>1911</v>
       </c>
@@ -11257,7 +11260,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>1911</v>
       </c>
@@ -11283,7 +11286,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>1911</v>
       </c>
@@ -11309,7 +11312,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>1911</v>
       </c>
@@ -11335,7 +11338,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>1911</v>
       </c>
@@ -11361,7 +11364,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>1911</v>
       </c>
@@ -11387,7 +11390,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>1911</v>
       </c>
@@ -11413,7 +11416,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>1911</v>
       </c>
@@ -11439,7 +11442,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>1911</v>
       </c>
@@ -11465,7 +11468,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>1911</v>
       </c>
@@ -11491,7 +11494,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>1911</v>
       </c>
@@ -11517,7 +11520,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>1911</v>
       </c>
@@ -11543,7 +11546,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>1911</v>
       </c>
@@ -11569,7 +11572,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>1911</v>
       </c>
@@ -11595,7 +11598,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>1911</v>
       </c>
@@ -11621,7 +11624,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>1911</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>1911</v>
       </c>
@@ -11673,7 +11676,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>1911</v>
       </c>
@@ -11702,7 +11705,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>1911</v>
       </c>
@@ -11728,7 +11731,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>1911</v>
       </c>
@@ -11754,7 +11757,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>1911</v>
       </c>
@@ -11780,7 +11783,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>1911</v>
       </c>
@@ -11809,7 +11812,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>1911</v>
       </c>
@@ -11838,7 +11841,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>1911</v>
       </c>
@@ -11867,7 +11870,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>1911</v>
       </c>
@@ -11896,7 +11899,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>1911</v>
       </c>
@@ -11922,7 +11925,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>1911</v>
       </c>
@@ -11948,7 +11951,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>1911</v>
       </c>
@@ -11974,7 +11977,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>1911</v>
       </c>
@@ -12000,7 +12003,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>1911</v>
       </c>
@@ -12026,7 +12029,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>1911</v>
       </c>
@@ -12052,7 +12055,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>1911</v>
       </c>
@@ -12081,7 +12084,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>1911</v>
       </c>
@@ -12107,7 +12110,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>1911</v>
       </c>
@@ -12133,7 +12136,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>1911</v>
       </c>
@@ -12159,7 +12162,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>1911</v>
       </c>
@@ -12185,7 +12188,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>1911</v>
       </c>
@@ -12211,7 +12214,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>1911</v>
       </c>
@@ -12237,7 +12240,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>1911</v>
       </c>
@@ -12263,7 +12266,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>1911</v>
       </c>
@@ -12289,7 +12292,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>1911</v>
       </c>
@@ -12315,7 +12318,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>1911</v>
       </c>
@@ -12341,7 +12344,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>1911</v>
       </c>
@@ -12367,7 +12370,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>1911</v>
       </c>
@@ -12393,7 +12396,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>1911</v>
       </c>
@@ -12419,7 +12422,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>1911</v>
       </c>
@@ -12448,7 +12451,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>1911</v>
       </c>
@@ -12474,7 +12477,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>1911</v>
       </c>
@@ -12500,7 +12503,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>1911</v>
       </c>
@@ -12526,7 +12529,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>1911</v>
       </c>
@@ -12552,7 +12555,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>1911</v>
       </c>
@@ -12578,7 +12581,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>1911</v>
       </c>
@@ -12604,7 +12607,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>1911</v>
       </c>
@@ -12633,7 +12636,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>1911</v>
       </c>
@@ -12659,7 +12662,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>1911</v>
       </c>
@@ -12685,7 +12688,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>1911</v>
       </c>
@@ -12711,7 +12714,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>1911</v>
       </c>
@@ -12740,7 +12743,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>1911</v>
       </c>
@@ -12766,7 +12769,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>1911</v>
       </c>
@@ -12792,7 +12795,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>1911</v>
       </c>
@@ -12818,7 +12821,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>1911</v>
       </c>
@@ -12844,7 +12847,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>1911</v>
       </c>
@@ -12870,7 +12873,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>1911</v>
       </c>
@@ -12896,7 +12899,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>1911</v>
       </c>
@@ -12922,7 +12925,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>1911</v>
       </c>
@@ -12948,7 +12951,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>1911</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>1911</v>
       </c>
@@ -13000,7 +13003,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>1911</v>
       </c>
@@ -13026,7 +13029,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>1911</v>
       </c>
@@ -13052,7 +13055,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>1911</v>
       </c>
@@ -13078,7 +13081,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>1911</v>
       </c>
@@ -13107,7 +13110,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>1911</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>1911</v>
       </c>
@@ -13165,7 +13168,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>1911</v>
       </c>
@@ -13191,7 +13194,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>1911</v>
       </c>
@@ -13217,7 +13220,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>1911</v>
       </c>
@@ -13246,7 +13249,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>1911</v>
       </c>
@@ -13272,7 +13275,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>1911</v>
       </c>
@@ -13298,7 +13301,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>1911</v>
       </c>
@@ -13324,7 +13327,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>1911</v>
       </c>
@@ -13350,7 +13353,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>1911</v>
       </c>
@@ -13376,7 +13379,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>1911</v>
       </c>
@@ -13402,7 +13405,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>1911</v>
       </c>
@@ -13428,7 +13431,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>1911</v>
       </c>
@@ -13454,7 +13457,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>1911</v>
       </c>
@@ -13480,7 +13483,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>1911</v>
       </c>
@@ -13506,7 +13509,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>1911</v>
       </c>
@@ -13532,7 +13535,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>1911</v>
       </c>
@@ -13558,7 +13561,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>1911</v>
       </c>
@@ -13584,7 +13587,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>1911</v>
       </c>
@@ -13610,7 +13613,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>1911</v>
       </c>
@@ -13636,7 +13639,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>1911</v>
       </c>
@@ -13662,7 +13665,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>1911</v>
       </c>
@@ -13688,7 +13691,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>1911</v>
       </c>
@@ -13714,7 +13717,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>1911</v>
       </c>
@@ -13740,7 +13743,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>1911</v>
       </c>
@@ -13766,7 +13769,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>1911</v>
       </c>
@@ -13792,7 +13795,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>1911</v>
       </c>
@@ -13818,7 +13821,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>1911</v>
       </c>
@@ -13844,7 +13847,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>1911</v>
       </c>
@@ -13870,7 +13873,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>1911</v>
       </c>
@@ -13899,7 +13902,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>1911</v>
       </c>
@@ -13928,7 +13931,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>1911</v>
       </c>
@@ -13957,7 +13960,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>1911</v>
       </c>
@@ -13986,7 +13989,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>1911</v>
       </c>
@@ -14015,7 +14018,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>1911</v>
       </c>
@@ -14044,7 +14047,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>1911</v>
       </c>
@@ -14070,7 +14073,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>1911</v>
       </c>
@@ -14096,7 +14099,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>1911</v>
       </c>
@@ -14122,7 +14125,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>1911</v>
       </c>
@@ -14148,7 +14151,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>1911</v>
       </c>
@@ -14174,7 +14177,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>1911</v>
       </c>
@@ -14200,7 +14203,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>1911</v>
       </c>
@@ -14226,7 +14229,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>1911</v>
       </c>
@@ -14252,7 +14255,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>1911</v>
       </c>
@@ -14278,7 +14281,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>1911</v>
       </c>
@@ -14304,7 +14307,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>1911</v>
       </c>
@@ -14330,7 +14333,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>1911</v>
       </c>
@@ -14359,7 +14362,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>1911</v>
       </c>
@@ -14388,7 +14391,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>1911</v>
       </c>
@@ -14417,7 +14420,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>1911</v>
       </c>
@@ -14446,7 +14449,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>1911</v>
       </c>
@@ -14475,7 +14478,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>1911</v>
       </c>
@@ -14504,7 +14507,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>1911</v>
       </c>
@@ -14533,7 +14536,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>1911</v>
       </c>
@@ -14559,7 +14562,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>1911</v>
       </c>
@@ -14585,7 +14588,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>1911</v>
       </c>
@@ -14611,7 +14614,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>1911</v>
       </c>
@@ -14637,7 +14640,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>1911</v>
       </c>
@@ -14663,7 +14666,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>1911</v>
       </c>
@@ -14689,7 +14692,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>1911</v>
       </c>
@@ -14715,7 +14718,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>1911</v>
       </c>
@@ -14741,7 +14744,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>1911</v>
       </c>
@@ -14767,7 +14770,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>1911</v>
       </c>
@@ -14793,7 +14796,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>1911</v>
       </c>
@@ -14819,7 +14822,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>1911</v>
       </c>
@@ -14845,7 +14848,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>1911</v>
       </c>
@@ -14871,7 +14874,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>1911</v>
       </c>
@@ -14897,7 +14900,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>1911</v>
       </c>
@@ -14923,7 +14926,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>1911</v>
       </c>
@@ -14949,7 +14952,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>1911</v>
       </c>
@@ -14975,7 +14978,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>1911</v>
       </c>
@@ -15001,7 +15004,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>1911</v>
       </c>
@@ -15027,7 +15030,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>1911</v>
       </c>
@@ -15053,7 +15056,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>1911</v>
       </c>
@@ -15079,7 +15082,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>1911</v>
       </c>
@@ -15105,7 +15108,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>1911</v>
       </c>
@@ -15131,7 +15134,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>1911</v>
       </c>
@@ -15157,7 +15160,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>1911</v>
       </c>

--- a/data-migration/xlsx_1900-/1911_Sommer.xlsx
+++ b/data-migration/xlsx_1900-/1911_Sommer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\TEMP REPOSITORY\VVZ 1833-2014\_XLSX_2024-05-22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F36B9E-B1A0-4EB5-8A92-DDC5F4F96338}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D847D1A9-6A21-4AA0-99BB-CF019160CE27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3685,9 +3685,6 @@
     <t>hitzig_hf</t>
   </si>
   <si>
-    <t>escher_a</t>
-  </si>
-  <si>
     <t>huber_m</t>
   </si>
   <si>
@@ -3742,9 +3739,6 @@
     <t>wild_o</t>
   </si>
   <si>
-    <t>nager _fr</t>
-  </si>
-  <si>
     <t>gysi_a</t>
   </si>
   <si>
@@ -3812,6 +3806,12 @@
   </si>
   <si>
     <t>Prof</t>
+  </si>
+  <si>
+    <t>escher_a2</t>
+  </si>
+  <si>
+    <t>nager_fr</t>
   </si>
 </sst>
 </file>
@@ -4155,21 +4155,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N416"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C157" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I175" sqref="I175:I182"/>
+    <sheetView tabSelected="1" topLeftCell="C104" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I116" sqref="I116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="82.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="26.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
-    <col min="13" max="13" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="82.44140625" customWidth="1"/>
+    <col min="7" max="7" width="19.88671875" customWidth="1"/>
+    <col min="8" max="8" width="26.88671875" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1911</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1911</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1911</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1911</v>
       </c>
@@ -4273,7 +4273,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1911</v>
       </c>
@@ -4299,7 +4299,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1911</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1911</v>
       </c>
@@ -4354,7 +4354,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>1911</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>1911</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1911</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1911</v>
       </c>
@@ -4467,7 +4467,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -4496,7 +4496,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1911</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1911</v>
       </c>
@@ -4551,7 +4551,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1911</v>
       </c>
@@ -4577,7 +4577,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1911</v>
       </c>
@@ -4603,7 +4603,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1911</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1911</v>
       </c>
@@ -4655,7 +4655,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1911</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1911</v>
       </c>
@@ -4710,7 +4710,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1911</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1911</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1911</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1911</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1911</v>
       </c>
@@ -4846,7 +4846,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1911</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1911</v>
       </c>
@@ -4901,7 +4901,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1911</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1911</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1911</v>
       </c>
@@ -4979,7 +4979,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1911</v>
       </c>
@@ -4999,13 +4999,13 @@
         <v>857</v>
       </c>
       <c r="H31" t="s">
-        <v>1221</v>
+        <v>1262</v>
       </c>
       <c r="I31" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1911</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1911</v>
       </c>
@@ -5051,13 +5051,13 @@
         <v>859</v>
       </c>
       <c r="H33" t="s">
-        <v>1221</v>
+        <v>1262</v>
       </c>
       <c r="I33" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1911</v>
       </c>
@@ -5083,7 +5083,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1911</v>
       </c>
@@ -5109,7 +5109,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1911</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1911</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1911</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1911</v>
       </c>
@@ -5219,7 +5219,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1911</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1911</v>
       </c>
@@ -5274,7 +5274,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1911</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1911</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1911</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1911</v>
       </c>
@@ -5372,13 +5372,13 @@
         <v>871</v>
       </c>
       <c r="H45" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I45" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1911</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1911</v>
       </c>
@@ -5430,7 +5430,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1911</v>
       </c>
@@ -5450,13 +5450,13 @@
         <v>874</v>
       </c>
       <c r="H48" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="I48" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1911</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1911</v>
       </c>
@@ -5508,7 +5508,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1911</v>
       </c>
@@ -5534,7 +5534,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1911</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1911</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1911</v>
       </c>
@@ -5609,10 +5609,10 @@
         <v>1109</v>
       </c>
       <c r="I54" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1911</v>
       </c>
@@ -5635,10 +5635,10 @@
         <v>1109</v>
       </c>
       <c r="I55" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1911</v>
       </c>
@@ -5652,19 +5652,19 @@
         <v>1206</v>
       </c>
       <c r="F56" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="G56" t="s">
         <v>882</v>
       </c>
       <c r="H56" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I56" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1911</v>
       </c>
@@ -5684,13 +5684,13 @@
         <v>883</v>
       </c>
       <c r="H57" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I57" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1911</v>
       </c>
@@ -5716,7 +5716,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1911</v>
       </c>
@@ -5736,13 +5736,13 @@
         <v>880</v>
       </c>
       <c r="H59" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="I59" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1911</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1911</v>
       </c>
@@ -5794,7 +5794,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1911</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1911</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1911</v>
       </c>
@@ -5875,7 +5875,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1911</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1911</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1911</v>
       </c>
@@ -5953,7 +5953,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1911</v>
       </c>
@@ -5979,7 +5979,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1911</v>
       </c>
@@ -6002,10 +6002,10 @@
         <v>1108</v>
       </c>
       <c r="I69" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1911</v>
       </c>
@@ -6028,10 +6028,10 @@
         <v>1109</v>
       </c>
       <c r="I70" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1911</v>
       </c>
@@ -6051,13 +6051,13 @@
         <v>892</v>
       </c>
       <c r="H71" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="I71" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1911</v>
       </c>
@@ -6080,10 +6080,10 @@
         <v>1112</v>
       </c>
       <c r="I72" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1911</v>
       </c>
@@ -6103,13 +6103,13 @@
         <v>893</v>
       </c>
       <c r="H73" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I73" t="s">
         <v>1225</v>
       </c>
-      <c r="I73" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1911</v>
       </c>
@@ -6129,13 +6129,13 @@
         <v>894</v>
       </c>
       <c r="H74" t="s">
+        <v>1224</v>
+      </c>
+      <c r="I74" t="s">
         <v>1225</v>
       </c>
-      <c r="I74" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1911</v>
       </c>
@@ -6164,7 +6164,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1911</v>
       </c>
@@ -6193,7 +6193,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1911</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1911</v>
       </c>
@@ -6269,7 +6269,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>1911</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1911</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1911</v>
       </c>
@@ -6353,7 +6353,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1911</v>
       </c>
@@ -6379,13 +6379,13 @@
         <v>1216</v>
       </c>
       <c r="K82" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L82" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1911</v>
       </c>
@@ -6411,7 +6411,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1911</v>
       </c>
@@ -6437,7 +6437,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1911</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1911</v>
       </c>
@@ -6483,13 +6483,13 @@
         <v>905</v>
       </c>
       <c r="H86" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I86" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1911</v>
       </c>
@@ -6509,13 +6509,13 @@
         <v>906</v>
       </c>
       <c r="H87" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I87" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1911</v>
       </c>
@@ -6535,13 +6535,13 @@
         <v>907</v>
       </c>
       <c r="H88" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I88" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1911</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1911</v>
       </c>
@@ -6593,7 +6593,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1911</v>
       </c>
@@ -6619,7 +6619,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1911</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1911</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1911</v>
       </c>
@@ -6691,13 +6691,13 @@
         <v>836</v>
       </c>
       <c r="H94" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I94" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1911</v>
       </c>
@@ -6723,7 +6723,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1911</v>
       </c>
@@ -6749,7 +6749,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1911</v>
       </c>
@@ -6769,13 +6769,13 @@
         <v>913</v>
       </c>
       <c r="H97" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I97" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1911</v>
       </c>
@@ -6795,13 +6795,13 @@
         <v>914</v>
       </c>
       <c r="H98" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I98" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1911</v>
       </c>
@@ -6821,13 +6821,13 @@
         <v>915</v>
       </c>
       <c r="H99" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I99" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>1911</v>
       </c>
@@ -6847,13 +6847,13 @@
         <v>916</v>
       </c>
       <c r="H100" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I100" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>1911</v>
       </c>
@@ -6873,13 +6873,13 @@
         <v>899</v>
       </c>
       <c r="H101" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="I101" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>1911</v>
       </c>
@@ -6905,7 +6905,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>1911</v>
       </c>
@@ -6925,13 +6925,13 @@
         <v>917</v>
       </c>
       <c r="H103" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I103" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>1911</v>
       </c>
@@ -6951,13 +6951,13 @@
         <v>909</v>
       </c>
       <c r="H104" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I104" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>1911</v>
       </c>
@@ -6977,13 +6977,13 @@
         <v>918</v>
       </c>
       <c r="H105" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I105" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>1911</v>
       </c>
@@ -7003,13 +7003,13 @@
         <v>919</v>
       </c>
       <c r="H106" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I106" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>1911</v>
       </c>
@@ -7029,13 +7029,13 @@
         <v>899</v>
       </c>
       <c r="H107" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="I107" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>1911</v>
       </c>
@@ -7055,7 +7055,7 @@
         <v>920</v>
       </c>
       <c r="H108" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I108" t="s">
         <v>1216</v>
@@ -7064,7 +7064,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>1911</v>
       </c>
@@ -7084,7 +7084,7 @@
         <v>921</v>
       </c>
       <c r="H109" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="I109" t="s">
         <v>1216</v>
@@ -7093,7 +7093,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>1911</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>1911</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>1911</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>1911</v>
       </c>
@@ -7197,7 +7197,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>1911</v>
       </c>
@@ -7217,13 +7217,13 @@
         <v>926</v>
       </c>
       <c r="H114" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="I114" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>1911</v>
       </c>
@@ -7243,13 +7243,13 @@
         <v>844</v>
       </c>
       <c r="H115" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I115" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>1911</v>
       </c>
@@ -7272,10 +7272,10 @@
         <v>1121</v>
       </c>
       <c r="I116" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>1911</v>
       </c>
@@ -7298,10 +7298,10 @@
         <v>1121</v>
       </c>
       <c r="I117" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>1911</v>
       </c>
@@ -7327,7 +7327,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>1911</v>
       </c>
@@ -7347,13 +7347,13 @@
         <v>927</v>
       </c>
       <c r="H119" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I119" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>1911</v>
       </c>
@@ -7373,13 +7373,13 @@
         <v>836</v>
       </c>
       <c r="H120" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="I120" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>1911</v>
       </c>
@@ -7405,7 +7405,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>1911</v>
       </c>
@@ -7431,7 +7431,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>1911</v>
       </c>
@@ -7457,7 +7457,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>1911</v>
       </c>
@@ -7477,13 +7477,13 @@
         <v>931</v>
       </c>
       <c r="H124" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I124" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>1911</v>
       </c>
@@ -7503,13 +7503,13 @@
         <v>836</v>
       </c>
       <c r="H125" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I125" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>1911</v>
       </c>
@@ -7529,13 +7529,13 @@
         <v>932</v>
       </c>
       <c r="H126" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="I126" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>1911</v>
       </c>
@@ -7555,13 +7555,13 @@
         <v>933</v>
       </c>
       <c r="H127" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="I127" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>1911</v>
       </c>
@@ -7587,7 +7587,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>1911</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>1911</v>
       </c>
@@ -7639,7 +7639,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>1911</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>1911</v>
       </c>
@@ -7691,7 +7691,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>1911</v>
       </c>
@@ -7717,7 +7717,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>1911</v>
       </c>
@@ -7734,16 +7734,16 @@
         <v>550</v>
       </c>
       <c r="G134" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H134" t="s">
         <v>1235</v>
       </c>
-      <c r="H134" t="s">
-        <v>1236</v>
-      </c>
       <c r="I134" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>1911</v>
       </c>
@@ -7763,7 +7763,7 @@
         <v>936</v>
       </c>
       <c r="H135" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I135" t="s">
         <v>1216</v>
@@ -7775,7 +7775,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>1911</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>937</v>
       </c>
       <c r="H136" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I136" t="s">
         <v>1216</v>
@@ -7807,7 +7807,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>1911</v>
       </c>
@@ -7827,13 +7827,13 @@
         <v>938</v>
       </c>
       <c r="H137" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="I137" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>1911</v>
       </c>
@@ -7859,7 +7859,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>1911</v>
       </c>
@@ -7885,7 +7885,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>1911</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>1911</v>
       </c>
@@ -7937,7 +7937,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>1911</v>
       </c>
@@ -7963,7 +7963,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>1911</v>
       </c>
@@ -7989,13 +7989,13 @@
         <v>1218</v>
       </c>
       <c r="K143" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="L143" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>1911</v>
       </c>
@@ -8015,13 +8015,13 @@
         <v>844</v>
       </c>
       <c r="H144" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="I144" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>1911</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>1911</v>
       </c>
@@ -8073,7 +8073,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>1911</v>
       </c>
@@ -8099,7 +8099,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>1911</v>
       </c>
@@ -8125,7 +8125,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>1911</v>
       </c>
@@ -8151,7 +8151,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>1911</v>
       </c>
@@ -8177,7 +8177,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>1911</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>1911</v>
       </c>
@@ -8229,7 +8229,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>1911</v>
       </c>
@@ -8255,7 +8255,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>1911</v>
       </c>
@@ -8281,7 +8281,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>1911</v>
       </c>
@@ -8307,7 +8307,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>1911</v>
       </c>
@@ -8327,13 +8327,13 @@
         <v>947</v>
       </c>
       <c r="H156" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="I156" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>1911</v>
       </c>
@@ -8353,13 +8353,13 @@
         <v>948</v>
       </c>
       <c r="H157" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="I157" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>1911</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>1911</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>1911</v>
       </c>
@@ -8431,13 +8431,13 @@
         <v>951</v>
       </c>
       <c r="H160" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I160" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>1911</v>
       </c>
@@ -8457,13 +8457,13 @@
         <v>844</v>
       </c>
       <c r="H161" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="I161" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>1911</v>
       </c>
@@ -8483,13 +8483,13 @@
         <v>952</v>
       </c>
       <c r="H162" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="I162" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>1911</v>
       </c>
@@ -8515,7 +8515,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>1911</v>
       </c>
@@ -8541,7 +8541,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>1911</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>1911</v>
       </c>
@@ -8587,13 +8587,13 @@
         <v>844</v>
       </c>
       <c r="H166" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="I166" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>1911</v>
       </c>
@@ -8619,7 +8619,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>1911</v>
       </c>
@@ -8645,7 +8645,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>1911</v>
       </c>
@@ -8671,7 +8671,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>1911</v>
       </c>
@@ -8697,7 +8697,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>1911</v>
       </c>
@@ -8723,7 +8723,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>1911</v>
       </c>
@@ -8743,13 +8743,13 @@
         <v>844</v>
       </c>
       <c r="H172" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="I172" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>1911</v>
       </c>
@@ -8769,13 +8769,13 @@
         <v>956</v>
       </c>
       <c r="H173" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="I173" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>1911</v>
       </c>
@@ -8795,13 +8795,13 @@
         <v>853</v>
       </c>
       <c r="H174" t="s">
-        <v>1240</v>
+        <v>1263</v>
       </c>
       <c r="I174" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>1911</v>
       </c>
@@ -8824,10 +8824,10 @@
         <v>1142</v>
       </c>
       <c r="I175" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>1911</v>
       </c>
@@ -8850,10 +8850,10 @@
         <v>1142</v>
       </c>
       <c r="I176" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>1911</v>
       </c>
@@ -8876,10 +8876,10 @@
         <v>1143</v>
       </c>
       <c r="I177" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>1911</v>
       </c>
@@ -8902,10 +8902,10 @@
         <v>1143</v>
       </c>
       <c r="I178" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>1911</v>
       </c>
@@ -8928,10 +8928,10 @@
         <v>1143</v>
       </c>
       <c r="I179" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>1911</v>
       </c>
@@ -8954,10 +8954,10 @@
         <v>1143</v>
       </c>
       <c r="I180" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>1911</v>
       </c>
@@ -8977,13 +8977,13 @@
         <v>962</v>
       </c>
       <c r="H181" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I181" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>1911</v>
       </c>
@@ -9003,13 +9003,13 @@
         <v>831</v>
       </c>
       <c r="H182" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="I182" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>1911</v>
       </c>
@@ -9035,7 +9035,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>1911</v>
       </c>
@@ -9061,7 +9061,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>1911</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>1911</v>
       </c>
@@ -9113,7 +9113,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>1911</v>
       </c>
@@ -9139,7 +9139,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>1911</v>
       </c>
@@ -9165,7 +9165,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>1911</v>
       </c>
@@ -9191,7 +9191,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>1911</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>1911</v>
       </c>
@@ -9243,7 +9243,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>1911</v>
       </c>
@@ -9269,7 +9269,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>1911</v>
       </c>
@@ -9295,7 +9295,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>1911</v>
       </c>
@@ -9324,7 +9324,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>1911</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>1911</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>1911</v>
       </c>
@@ -9411,7 +9411,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>1911</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>1911</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="200" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>1911</v>
       </c>
@@ -9492,7 +9492,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="201" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>1911</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="202" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>1911</v>
       </c>
@@ -9544,7 +9544,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="203" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>1911</v>
       </c>
@@ -9570,7 +9570,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="204" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>1911</v>
       </c>
@@ -9593,10 +9593,10 @@
         <v>1147</v>
       </c>
       <c r="I204" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="205" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="205" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>1911</v>
       </c>
@@ -9622,7 +9622,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="206" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>1911</v>
       </c>
@@ -9648,7 +9648,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="207" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>1911</v>
       </c>
@@ -9674,7 +9674,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="208" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>1911</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>1911</v>
       </c>
@@ -9726,7 +9726,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>1911</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>1911</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>1911</v>
       </c>
@@ -9804,7 +9804,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>1911</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>1911</v>
       </c>
@@ -9856,7 +9856,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>1911</v>
       </c>
@@ -9876,13 +9876,13 @@
         <v>986</v>
       </c>
       <c r="H215" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="I215" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>1911</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>1911</v>
       </c>
@@ -9934,7 +9934,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>1911</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>1911</v>
       </c>
@@ -9986,7 +9986,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>1911</v>
       </c>
@@ -10012,7 +10012,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>1911</v>
       </c>
@@ -10038,7 +10038,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>1911</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>1911</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>1911</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>1911</v>
       </c>
@@ -10142,7 +10142,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>1911</v>
       </c>
@@ -10162,13 +10162,13 @@
         <v>995</v>
       </c>
       <c r="H226" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I226" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>1911</v>
       </c>
@@ -10188,13 +10188,13 @@
         <v>994</v>
       </c>
       <c r="H227" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I227" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>1911</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>1911</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>1911</v>
       </c>
@@ -10272,7 +10272,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>1911</v>
       </c>
@@ -10298,7 +10298,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>1911</v>
       </c>
@@ -10324,7 +10324,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>1911</v>
       </c>
@@ -10344,13 +10344,13 @@
         <v>999</v>
       </c>
       <c r="H233" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="I233" t="s">
         <v>1217</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>1911</v>
       </c>
@@ -10373,10 +10373,10 @@
         <v>1156</v>
       </c>
       <c r="I234" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>1911</v>
       </c>
@@ -10399,10 +10399,10 @@
         <v>1156</v>
       </c>
       <c r="I235" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>1911</v>
       </c>
@@ -10425,10 +10425,10 @@
         <v>1156</v>
       </c>
       <c r="I236" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>1911</v>
       </c>
@@ -10451,10 +10451,10 @@
         <v>1156</v>
       </c>
       <c r="I237" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>1911</v>
       </c>
@@ -10477,10 +10477,10 @@
         <v>1156</v>
       </c>
       <c r="I238" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>1911</v>
       </c>
@@ -10503,10 +10503,10 @@
         <v>1156</v>
       </c>
       <c r="I239" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>1911</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>1911</v>
       </c>
@@ -10552,13 +10552,13 @@
         <v>931</v>
       </c>
       <c r="H241" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I241" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>1911</v>
       </c>
@@ -10584,7 +10584,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>1911</v>
       </c>
@@ -10610,7 +10610,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>1911</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>1911</v>
       </c>
@@ -10662,7 +10662,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>1911</v>
       </c>
@@ -10682,13 +10682,13 @@
         <v>867</v>
       </c>
       <c r="H246" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I246" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>1911</v>
       </c>
@@ -10708,13 +10708,13 @@
         <v>1007</v>
       </c>
       <c r="H247" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I247" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>1911</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>1911</v>
       </c>
@@ -10760,13 +10760,13 @@
         <v>1008</v>
       </c>
       <c r="H249" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I249" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>1911</v>
       </c>
@@ -10786,13 +10786,13 @@
         <v>1009</v>
       </c>
       <c r="H250" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I250" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>1911</v>
       </c>
@@ -10818,7 +10818,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>1911</v>
       </c>
@@ -10844,7 +10844,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>1911</v>
       </c>
@@ -10870,7 +10870,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>1911</v>
       </c>
@@ -10896,7 +10896,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>1911</v>
       </c>
@@ -10916,13 +10916,13 @@
         <v>944</v>
       </c>
       <c r="H255" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="I255" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>1911</v>
       </c>
@@ -10948,7 +10948,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>1911</v>
       </c>
@@ -10968,13 +10968,13 @@
         <v>1012</v>
       </c>
       <c r="H257" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I257" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>1911</v>
       </c>
@@ -10994,13 +10994,13 @@
         <v>992</v>
       </c>
       <c r="H258" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I258" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>1911</v>
       </c>
@@ -11020,13 +11020,13 @@
         <v>1013</v>
       </c>
       <c r="H259" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I259" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>1911</v>
       </c>
@@ -11046,13 +11046,13 @@
         <v>1014</v>
       </c>
       <c r="H260" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="I260" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>1911</v>
       </c>
@@ -11072,13 +11072,13 @@
         <v>856</v>
       </c>
       <c r="H261" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="I261" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>1911</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>1911</v>
       </c>
@@ -11130,7 +11130,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>1911</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>1911</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>1911</v>
       </c>
@@ -11208,7 +11208,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>1911</v>
       </c>
@@ -11228,13 +11228,13 @@
         <v>836</v>
       </c>
       <c r="H267" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="I267" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>1911</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>1911</v>
       </c>
@@ -11286,7 +11286,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>1911</v>
       </c>
@@ -11306,13 +11306,13 @@
         <v>1021</v>
       </c>
       <c r="H270" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I270" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>1911</v>
       </c>
@@ -11332,13 +11332,13 @@
         <v>994</v>
       </c>
       <c r="H271" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="I271" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>1911</v>
       </c>
@@ -11364,7 +11364,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>1911</v>
       </c>
@@ -11390,7 +11390,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>1911</v>
       </c>
@@ -11416,7 +11416,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>1911</v>
       </c>
@@ -11442,7 +11442,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>1911</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>1911</v>
       </c>
@@ -11494,7 +11494,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>1911</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>1911</v>
       </c>
@@ -11546,7 +11546,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>1911</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>1911</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>1911</v>
       </c>
@@ -11618,13 +11618,13 @@
         <v>1027</v>
       </c>
       <c r="H282" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I282" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>1911</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>1911</v>
       </c>
@@ -11670,13 +11670,13 @@
         <v>1029</v>
       </c>
       <c r="H284" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I284" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>1911</v>
       </c>
@@ -11705,7 +11705,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>1911</v>
       </c>
@@ -11725,13 +11725,13 @@
         <v>1030</v>
       </c>
       <c r="H286" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="I286" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>1911</v>
       </c>
@@ -11757,7 +11757,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>1911</v>
       </c>
@@ -11783,7 +11783,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="289" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>1911</v>
       </c>
@@ -11812,7 +11812,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="290" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>1911</v>
       </c>
@@ -11841,7 +11841,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="291" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>1911</v>
       </c>
@@ -11870,7 +11870,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="292" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>1911</v>
       </c>
@@ -11899,7 +11899,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="293" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>1911</v>
       </c>
@@ -11925,7 +11925,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="294" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>1911</v>
       </c>
@@ -11951,7 +11951,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="295" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>1911</v>
       </c>
@@ -11977,7 +11977,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="296" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>1911</v>
       </c>
@@ -12003,7 +12003,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="297" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>1911</v>
       </c>
@@ -12029,7 +12029,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="298" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>1911</v>
       </c>
@@ -12055,7 +12055,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="299" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>1911</v>
       </c>
@@ -12084,7 +12084,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="300" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>1911</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="301" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>1911</v>
       </c>
@@ -12130,13 +12130,13 @@
         <v>1039</v>
       </c>
       <c r="H301" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I301" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="302" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>1911</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="303" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>1911</v>
       </c>
@@ -12188,7 +12188,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="304" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>1911</v>
       </c>
@@ -12214,7 +12214,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>1911</v>
       </c>
@@ -12234,13 +12234,13 @@
         <v>1041</v>
       </c>
       <c r="H305" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I305" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>1911</v>
       </c>
@@ -12260,13 +12260,13 @@
         <v>836</v>
       </c>
       <c r="H306" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I306" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>1911</v>
       </c>
@@ -12286,13 +12286,13 @@
         <v>1003</v>
       </c>
       <c r="H307" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="I307" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>1911</v>
       </c>
@@ -12318,7 +12318,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>1911</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>1911</v>
       </c>
@@ -12370,7 +12370,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>1911</v>
       </c>
@@ -12396,7 +12396,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>1911</v>
       </c>
@@ -12422,7 +12422,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>1911</v>
       </c>
@@ -12445,13 +12445,13 @@
         <v>862</v>
       </c>
       <c r="H313" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I313" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>1911</v>
       </c>
@@ -12471,13 +12471,13 @@
         <v>1019</v>
       </c>
       <c r="H314" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I314" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>1911</v>
       </c>
@@ -12497,13 +12497,13 @@
         <v>1043</v>
       </c>
       <c r="H315" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I315" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>1911</v>
       </c>
@@ -12523,13 +12523,13 @@
         <v>1044</v>
       </c>
       <c r="H316" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I316" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>1911</v>
       </c>
@@ -12549,13 +12549,13 @@
         <v>1045</v>
       </c>
       <c r="H317" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="I317" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>1911</v>
       </c>
@@ -12581,7 +12581,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>1911</v>
       </c>
@@ -12601,13 +12601,13 @@
         <v>882</v>
       </c>
       <c r="H319" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="I319" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>1911</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>1911</v>
       </c>
@@ -12662,7 +12662,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>1911</v>
       </c>
@@ -12688,7 +12688,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>1911</v>
       </c>
@@ -12714,7 +12714,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>1911</v>
       </c>
@@ -12743,7 +12743,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>1911</v>
       </c>
@@ -12769,7 +12769,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>1911</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>1911</v>
       </c>
@@ -12821,7 +12821,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>1911</v>
       </c>
@@ -12847,7 +12847,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>1911</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>1911</v>
       </c>
@@ -12899,7 +12899,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>1911</v>
       </c>
@@ -12925,7 +12925,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>1911</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>1911</v>
       </c>
@@ -12977,7 +12977,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>1911</v>
       </c>
@@ -13003,7 +13003,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>1911</v>
       </c>
@@ -13023,13 +13023,13 @@
         <v>1054</v>
       </c>
       <c r="H335" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I335" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>1911</v>
       </c>
@@ -13049,13 +13049,13 @@
         <v>836</v>
       </c>
       <c r="H336" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I336" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>1911</v>
       </c>
@@ -13075,13 +13075,13 @@
         <v>1055</v>
       </c>
       <c r="H337" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="I337" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>1911</v>
       </c>
@@ -13110,7 +13110,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>1911</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>1911</v>
       </c>
@@ -13168,7 +13168,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>1911</v>
       </c>
@@ -13188,13 +13188,13 @@
         <v>844</v>
       </c>
       <c r="H341" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I341" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>1911</v>
       </c>
@@ -13214,13 +13214,13 @@
         <v>844</v>
       </c>
       <c r="H342" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="I342" t="s">
         <v>1218</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>1911</v>
       </c>
@@ -13249,7 +13249,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>1911</v>
       </c>
@@ -13275,7 +13275,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>1911</v>
       </c>
@@ -13301,7 +13301,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>1911</v>
       </c>
@@ -13327,7 +13327,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>1911</v>
       </c>
@@ -13353,7 +13353,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>1911</v>
       </c>
@@ -13379,7 +13379,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>1911</v>
       </c>
@@ -13405,7 +13405,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>1911</v>
       </c>
@@ -13431,7 +13431,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>1911</v>
       </c>
@@ -13457,7 +13457,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>1911</v>
       </c>
@@ -13483,7 +13483,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>1911</v>
       </c>
@@ -13509,7 +13509,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>1911</v>
       </c>
@@ -13535,7 +13535,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>1911</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>1911</v>
       </c>
@@ -13587,7 +13587,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>1911</v>
       </c>
@@ -13613,7 +13613,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>1911</v>
       </c>
@@ -13639,7 +13639,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>1911</v>
       </c>
@@ -13665,7 +13665,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>1911</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>1911</v>
       </c>
@@ -13717,7 +13717,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>1911</v>
       </c>
@@ -13743,7 +13743,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>1911</v>
       </c>
@@ -13769,7 +13769,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>1911</v>
       </c>
@@ -13795,7 +13795,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>1911</v>
       </c>
@@ -13821,7 +13821,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>1911</v>
       </c>
@@ -13847,7 +13847,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>1911</v>
       </c>
@@ -13873,7 +13873,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>1911</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>1911</v>
       </c>
@@ -13931,7 +13931,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>1911</v>
       </c>
@@ -13954,13 +13954,13 @@
         <v>1072</v>
       </c>
       <c r="H370" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I370" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>1911</v>
       </c>
@@ -13983,13 +13983,13 @@
         <v>836</v>
       </c>
       <c r="H371" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I371" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>1911</v>
       </c>
@@ -14012,13 +14012,13 @@
         <v>1073</v>
       </c>
       <c r="H372" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I372" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>1911</v>
       </c>
@@ -14041,13 +14041,13 @@
         <v>844</v>
       </c>
       <c r="H373" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="I373" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>1911</v>
       </c>
@@ -14073,7 +14073,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>1911</v>
       </c>
@@ -14099,7 +14099,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>1911</v>
       </c>
@@ -14125,7 +14125,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>1911</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>1911</v>
       </c>
@@ -14177,7 +14177,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>1911</v>
       </c>
@@ -14203,7 +14203,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>1911</v>
       </c>
@@ -14229,7 +14229,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>1911</v>
       </c>
@@ -14255,7 +14255,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>1911</v>
       </c>
@@ -14281,7 +14281,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>1911</v>
       </c>
@@ -14307,7 +14307,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>1911</v>
       </c>
@@ -14333,7 +14333,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="385" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>1911</v>
       </c>
@@ -14353,7 +14353,7 @@
         <v>1075</v>
       </c>
       <c r="H385" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I385" t="s">
         <v>1216</v>
@@ -14362,7 +14362,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="386" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>1911</v>
       </c>
@@ -14382,7 +14382,7 @@
         <v>1076</v>
       </c>
       <c r="H386" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I386" t="s">
         <v>1216</v>
@@ -14391,7 +14391,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="387" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>1911</v>
       </c>
@@ -14411,7 +14411,7 @@
         <v>1077</v>
       </c>
       <c r="H387" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I387" t="s">
         <v>1216</v>
@@ -14420,7 +14420,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="388" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>1911</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>844</v>
       </c>
       <c r="H388" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I388" t="s">
         <v>1216</v>
@@ -14449,7 +14449,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="389" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>1911</v>
       </c>
@@ -14469,7 +14469,7 @@
         <v>1078</v>
       </c>
       <c r="H389" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I389" t="s">
         <v>1216</v>
@@ -14478,7 +14478,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="390" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>1911</v>
       </c>
@@ -14498,7 +14498,7 @@
         <v>1079</v>
       </c>
       <c r="H390" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I390" t="s">
         <v>1216</v>
@@ -14507,7 +14507,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="391" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>1911</v>
       </c>
@@ -14527,7 +14527,7 @@
         <v>1080</v>
       </c>
       <c r="H391" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="I391" t="s">
         <v>1216</v>
@@ -14536,7 +14536,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="392" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>1911</v>
       </c>
@@ -14562,7 +14562,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="393" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>1911</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="394" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>1911</v>
       </c>
@@ -14614,7 +14614,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="395" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>1911</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="396" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>1911</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="397" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>1911</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="398" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>1911</v>
       </c>
@@ -14718,7 +14718,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="399" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>1911</v>
       </c>
@@ -14744,7 +14744,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="400" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>1911</v>
       </c>
@@ -14770,7 +14770,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>1911</v>
       </c>
@@ -14796,7 +14796,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>1911</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>1911</v>
       </c>
@@ -14848,7 +14848,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>1911</v>
       </c>
@@ -14874,7 +14874,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>1911</v>
       </c>
@@ -14894,13 +14894,13 @@
         <v>1089</v>
       </c>
       <c r="H405" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I405" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>1911</v>
       </c>
@@ -14920,13 +14920,13 @@
         <v>1090</v>
       </c>
       <c r="H406" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="I406" t="s">
         <v>1216</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>1911</v>
       </c>
@@ -14952,7 +14952,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>1911</v>
       </c>
@@ -14978,7 +14978,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>1911</v>
       </c>
@@ -15004,7 +15004,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>1911</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>1911</v>
       </c>
@@ -15056,7 +15056,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>1911</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>1911</v>
       </c>
@@ -15108,7 +15108,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>1911</v>
       </c>
@@ -15134,7 +15134,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>1911</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>1911</v>
       </c>
